--- a/biology/Zoologie/Berger_de_Bergame/Berger_de_Bergame.xlsx
+++ b/biology/Zoologie/Berger_de_Bergame/Berger_de_Bergame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le berger de Bergame est une race de chien d'origine italienne. La Fédération cynologique internationale le reconnaît sous le nom de cane da pastore bergamasco. On l'appelle parfois aussi bergamasque. Il était à l'origine destiné à conduire et garder les troupeaux de moutons.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnifique berger, ce chien reconnaissable à sa robe est le cousin du berger de Brie. Il y a deux types de poil, le poil en forme de nœud et le poil comme le Briard (rêche). Il y a plusieurs types de couleurs, le noir opaque, le brun clair, foncé, le beige, le gris clair, foncé, le blond, le blanc, le fauve, l'arlequin et toutes autres couleurs à deux, trois, voire quatre couleurs différentes. Ses yeux peuvent être brun clair ou foncé, gris clair ou foncé et bleu ce qui est peu fréquent. La queue est portée en sabre et les oreilles sont triangulaires. Il mesure entre 54 et 62 cm et le poids est de 26 à 38 kg.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ancienne race de chiens de garde des troupeaux a essaimé dans toute la région des Alpes italiennes. l'effectif de ces chiens était tout spécialement grand dans les vallées bergamasques, où l'élevage du mouton était fortement développé.
 Originaire de la région de Bergame, en Italie, ce chien est connu depuis plus de 2 000 ans. Créé par les romains pour garder les troupeaux et tenir les loups à distance, il compte dans ses ascendants des Bergers français et asiatiques.
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chien de berger destiné à la conduite et à la garde des troupeaux.
 </t>
